--- a/excel/collective/zestawy_dla_uczniow/zestaw_034.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_034.xlsx
@@ -61,19 +61,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Emilia Czarnecka</t>
-  </si>
-  <si>
-    <t>Anna Kubiak</t>
-  </si>
-  <si>
-    <t>Anna Urbaniak</t>
-  </si>
-  <si>
-    <t>Julia Sadowska</t>
-  </si>
-  <si>
-    <t>Emilia Wójcik</t>
+    <t>Natalia Olszewska</t>
+  </si>
+  <si>
+    <t>Aleksander Krawczyk</t>
+  </si>
+  <si>
+    <t>Maja Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Szymon Woźniak</t>
+  </si>
+  <si>
+    <t>Adam Woźniak</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -163,37 +163,37 @@
     <t>Długopis niebieski</t>
   </si>
   <si>
-    <t>1,70</t>
-  </si>
-  <si>
-    <t>Ołówek HB</t>
-  </si>
-  <si>
-    <t>1,20</t>
+    <t>1,80</t>
+  </si>
+  <si>
+    <t>Temperówka</t>
+  </si>
+  <si>
+    <t>2,70</t>
+  </si>
+  <si>
+    <t>Cyrkiel</t>
+  </si>
+  <si>
+    <t>14,10</t>
+  </si>
+  <si>
+    <t>Linijka 30 cm</t>
+  </si>
+  <si>
+    <t>2,50</t>
   </si>
   <si>
     <t>Pędzelek</t>
   </si>
   <si>
-    <t>3,80</t>
-  </si>
-  <si>
-    <t>Temperówka</t>
-  </si>
-  <si>
-    <t>1,90</t>
-  </si>
-  <si>
-    <t>Blok rysunkowy A4</t>
-  </si>
-  <si>
-    <t>4,30</t>
-  </si>
-  <si>
-    <t>Cyrkiel</t>
-  </si>
-  <si>
-    <t>11,20</t>
+    <t>5,90</t>
+  </si>
+  <si>
+    <t>Zeszyt 60 kartek</t>
+  </si>
+  <si>
+    <t>5,70</t>
   </si>
   <si>
     <t>SUMA:</t>
@@ -220,31 +220,31 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>8,62</t>
+    <t>23,95</t>
   </si>
   <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>17,45</t>
+    <t>21,90</t>
   </si>
   <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>13,81</t>
+    <t>1,44</t>
   </si>
   <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>29,20</t>
+    <t>30,83</t>
   </si>
   <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>23,27</t>
+    <t>3,21</t>
   </si>
   <si>
     <t>Razem Styczeń:</t>
@@ -253,19 +253,19 @@
     <t>Luty:</t>
   </si>
   <si>
-    <t>12,96</t>
-  </si>
-  <si>
-    <t>9,80</t>
-  </si>
-  <si>
-    <t>1,85</t>
-  </si>
-  <si>
-    <t>19,70</t>
-  </si>
-  <si>
-    <t>10,78</t>
+    <t>8,04</t>
+  </si>
+  <si>
+    <t>30,17</t>
+  </si>
+  <si>
+    <t>30,70</t>
+  </si>
+  <si>
+    <t>4,25</t>
+  </si>
+  <si>
+    <t>29,81</t>
   </si>
   <si>
     <t>Razem Luty:</t>
@@ -274,19 +274,19 @@
     <t>Marzec:</t>
   </si>
   <si>
-    <t>14,45</t>
-  </si>
-  <si>
-    <t>10,38</t>
-  </si>
-  <si>
-    <t>13,15</t>
-  </si>
-  <si>
-    <t>27,50</t>
-  </si>
-  <si>
-    <t>7,07</t>
+    <t>8,49</t>
+  </si>
+  <si>
+    <t>25,89</t>
+  </si>
+  <si>
+    <t>9,69</t>
+  </si>
+  <si>
+    <t>28,27</t>
+  </si>
+  <si>
+    <t>24,47</t>
   </si>
   <si>
     <t>Razem Marzec:</t>
@@ -340,37 +340,46 @@
     <t>Czy pasek?</t>
   </si>
   <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Borkowska</t>
+  </si>
+  <si>
     <t>Jakub</t>
   </si>
   <si>
-    <t>Wojciechowski</t>
-  </si>
-  <si>
-    <t>Julia</t>
-  </si>
-  <si>
-    <t>Kubiak</t>
-  </si>
-  <si>
-    <t>Lena</t>
-  </si>
-  <si>
-    <t>Urbaniak</t>
-  </si>
-  <si>
-    <t>Olszewska</t>
-  </si>
-  <si>
-    <t>Oliwia</t>
-  </si>
-  <si>
-    <t>Zawadzka</t>
-  </si>
-  <si>
-    <t>Natalia</t>
-  </si>
-  <si>
-    <t>Czarnecka</t>
+    <t>Zieliński</t>
+  </si>
+  <si>
+    <t>Filip</t>
+  </si>
+  <si>
+    <t>Kaczmarek</t>
+  </si>
+  <si>
+    <t>Szymon</t>
+  </si>
+  <si>
+    <t>Dąbrowski</t>
+  </si>
+  <si>
+    <t>Emilia</t>
+  </si>
+  <si>
+    <t>Piekarska</t>
+  </si>
+  <si>
+    <t>Kozłowski</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Piotrowski</t>
+  </si>
+  <si>
+    <t>Jan</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -406,148 +415,121 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Wojciech Lewandowski</t>
-  </si>
-  <si>
-    <t>25.12.1989</t>
-  </si>
-  <si>
-    <t>14 454,00 zł</t>
-  </si>
-  <si>
-    <t>Oliwia Górska</t>
-  </si>
-  <si>
-    <t>21.07.2004</t>
-  </si>
-  <si>
-    <t>8 546,00 zł</t>
-  </si>
-  <si>
-    <t>Hanna Urbaniak</t>
-  </si>
-  <si>
-    <t>19.11.1991</t>
-  </si>
-  <si>
-    <t>12 773,00 zł</t>
-  </si>
-  <si>
-    <t>Lena Król</t>
-  </si>
-  <si>
-    <t>15.10.1979</t>
-  </si>
-  <si>
-    <t>4 461,00 zł</t>
-  </si>
-  <si>
-    <t>Natalia Król</t>
-  </si>
-  <si>
-    <t>01.10.1998</t>
-  </si>
-  <si>
-    <t>13 449,00 zł</t>
-  </si>
-  <si>
-    <t>Natalia Wójcik</t>
-  </si>
-  <si>
-    <t>10.10.1995</t>
-  </si>
-  <si>
-    <t>14 896,00 zł</t>
-  </si>
-  <si>
-    <t>Szymon Krawczyk</t>
-  </si>
-  <si>
-    <t>04.10.1976</t>
-  </si>
-  <si>
-    <t>7 996,00 zł</t>
-  </si>
-  <si>
-    <t>Adam Lewandowski</t>
-  </si>
-  <si>
-    <t>23.08.2004</t>
-  </si>
-  <si>
-    <t>5 523,00 zł</t>
-  </si>
-  <si>
-    <t>Emilia Borkowska</t>
-  </si>
-  <si>
-    <t>25.04.1977</t>
-  </si>
-  <si>
-    <t>7 286,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Kamiński</t>
-  </si>
-  <si>
-    <t>18.05.1979</t>
-  </si>
-  <si>
-    <t>4 378,00 zł</t>
-  </si>
-  <si>
-    <t>Aleksander Szymański</t>
-  </si>
-  <si>
-    <t>19.10.2005</t>
-  </si>
-  <si>
-    <t>8 920,00 zł</t>
-  </si>
-  <si>
-    <t>Emilia Sikorska</t>
-  </si>
-  <si>
-    <t>22.12.1977</t>
-  </si>
-  <si>
-    <t>5 685,00 zł</t>
-  </si>
-  <si>
-    <t>Lena Urbaniak</t>
-  </si>
-  <si>
-    <t>26.01.1975</t>
-  </si>
-  <si>
-    <t>8 543,00 zł</t>
-  </si>
-  <si>
-    <t>Jakub Kozłowski</t>
-  </si>
-  <si>
-    <t>23.10.1980</t>
-  </si>
-  <si>
-    <t>11 737,00 zł</t>
-  </si>
-  <si>
-    <t>Jakub Kaczmarek</t>
-  </si>
-  <si>
-    <t>10.02.1999</t>
-  </si>
-  <si>
-    <t>3 644,00 zł</t>
-  </si>
-  <si>
-    <t>Filip Wójcik</t>
-  </si>
-  <si>
-    <t>02.01.1977</t>
-  </si>
-  <si>
-    <t>11 362,00 zł</t>
+    <t>Wojciech Kamiński</t>
+  </si>
+  <si>
+    <t>10.10.1996</t>
+  </si>
+  <si>
+    <t>12 010,00 zł</t>
+  </si>
+  <si>
+    <t>Jakub Szymański</t>
+  </si>
+  <si>
+    <t>23.11.1987</t>
+  </si>
+  <si>
+    <t>7 220,00 zł</t>
+  </si>
+  <si>
+    <t>Adam Krawczyk</t>
+  </si>
+  <si>
+    <t>16.11.1978</t>
+  </si>
+  <si>
+    <t>13 197,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Kaczmarek</t>
+  </si>
+  <si>
+    <t>22.01.1998</t>
+  </si>
+  <si>
+    <t>3 688,00 zł</t>
+  </si>
+  <si>
+    <t>Hanna Malinowska</t>
+  </si>
+  <si>
+    <t>02.09.1979</t>
+  </si>
+  <si>
+    <t>11 746,00 zł</t>
+  </si>
+  <si>
+    <t>Julia Olszewska</t>
+  </si>
+  <si>
+    <t>23.01.1984</t>
+  </si>
+  <si>
+    <t>9 040,00 zł</t>
+  </si>
+  <si>
+    <t>Mikołaj Kwiatkowski</t>
+  </si>
+  <si>
+    <t>18.03.1983</t>
+  </si>
+  <si>
+    <t>8 288,00 zł</t>
+  </si>
+  <si>
+    <t>Zuzanna Wilk</t>
+  </si>
+  <si>
+    <t>12.08.1995</t>
+  </si>
+  <si>
+    <t>12 658,00 zł</t>
+  </si>
+  <si>
+    <t>Hanna Górska</t>
+  </si>
+  <si>
+    <t>14.10.1976</t>
+  </si>
+  <si>
+    <t>14 850,00 zł</t>
+  </si>
+  <si>
+    <t>Hanna Wilk</t>
+  </si>
+  <si>
+    <t>25.11.1978</t>
+  </si>
+  <si>
+    <t>3 269,00 zł</t>
+  </si>
+  <si>
+    <t>Julia Malinowska</t>
+  </si>
+  <si>
+    <t>09.03.1981</t>
+  </si>
+  <si>
+    <t>7 903,00 zł</t>
+  </si>
+  <si>
+    <t>Wojciech Piotrowski</t>
+  </si>
+  <si>
+    <t>24.06.1997</t>
+  </si>
+  <si>
+    <t>6 298,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Jankowski</t>
+  </si>
+  <si>
+    <t>17.02.2002</t>
+  </si>
+  <si>
+    <t>10 472,00 zł</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -619,283 +601,301 @@
     <t>Województwo</t>
   </si>
   <si>
-    <t>Marzec</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>1 394,00 zł</t>
+  </si>
+  <si>
+    <t>1 812,00 zł</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>727,00 zł</t>
+  </si>
+  <si>
+    <t>894,00 zł</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>1 083,00 zł</t>
+  </si>
+  <si>
+    <t>1 235,00 zł</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>1 445,00 zł</t>
+  </si>
+  <si>
+    <t>2 023,00 zł</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>1 454,00 zł</t>
+  </si>
+  <si>
+    <t>1 818,00 zł</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>1 453,00 zł</t>
+  </si>
+  <si>
+    <t>1 656,00 zł</t>
+  </si>
+  <si>
+    <t>Smartphone 5G 128GB</t>
+  </si>
+  <si>
+    <t>795,00 zł</t>
+  </si>
+  <si>
+    <t>1 049,00 zł</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa</t>
   </si>
   <si>
     <t>1 272,00 zł</t>
   </si>
   <si>
-    <t>1 577,00 zł</t>
+    <t>1 488,00 zł</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>1 067,00 zł</t>
+  </si>
+  <si>
+    <t>1 270,00 zł</t>
+  </si>
+  <si>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>1 147,00 zł</t>
+  </si>
+  <si>
+    <t>1 411,00 zł</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>723,00 zł</t>
+  </si>
+  <si>
+    <t>925,00 zł</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>644,00 zł</t>
+  </si>
+  <si>
+    <t>721,00 zł</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>1 128,00 zł</t>
+  </si>
+  <si>
+    <t>1 365,00 zł</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>589,00 zł</t>
+  </si>
+  <si>
+    <t>789,00 zł</t>
+  </si>
+  <si>
+    <t>902,00 zł</t>
+  </si>
+  <si>
+    <t>1 010,00 zł</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>1 220,00 zł</t>
+  </si>
+  <si>
+    <t>1 476,00 zł</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>1 278,00 zł</t>
+  </si>
+  <si>
+    <t>1 674,00 zł</t>
   </si>
   <si>
     <t>Jan Kowalski</t>
   </si>
   <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>1 150,00 zł</t>
+  </si>
+  <si>
+    <t>1 357,00 zł</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>1 875,00 zł</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>806,00 zł</t>
+  </si>
+  <si>
+    <t>1 120,00 zł</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>1 395,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>1 279,00 zł</t>
+  </si>
+  <si>
+    <t>1 420,00 zł</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>1 098,00 zł</t>
+  </si>
+  <si>
+    <t>1 383,00 zł</t>
+  </si>
+  <si>
     <t>opolskie</t>
   </si>
   <si>
-    <t>Luty</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>554,00 zł</t>
-  </si>
-  <si>
-    <t>726,00 zł</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>805,00 zł</t>
+  </si>
+  <si>
+    <t>1 038,00 zł</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>1 171,00 zł</t>
+  </si>
+  <si>
+    <t>1 370,00 zł</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>865,00 zł</t>
+  </si>
+  <si>
+    <t>960,00 zł</t>
   </si>
   <si>
     <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>Styczeń</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>1 370,00 zł</t>
-  </si>
-  <si>
-    <t>1 877,00 zł</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>1 296,00 zł</t>
-  </si>
-  <si>
-    <t>1 814,00 zł</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>1 100,00 zł</t>
-  </si>
-  <si>
-    <t>1 485,00 zł</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>1 294,00 zł</t>
-  </si>
-  <si>
-    <t>1 423,00 zł</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>1 258,00 zł</t>
-  </si>
-  <si>
-    <t>1 723,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>1 363,00 zł</t>
-  </si>
-  <si>
-    <t>1 731,00 zł</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>1 379,00 zł</t>
-  </si>
-  <si>
-    <t>1 806,00 zł</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>1 089,00 zł</t>
-  </si>
-  <si>
-    <t>1 329,00 zł</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>1 325,00 zł</t>
-  </si>
-  <si>
-    <t>1 656,00 zł</t>
-  </si>
-  <si>
-    <t>735,00 zł</t>
-  </si>
-  <si>
-    <t>1 007,00 zł</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>592,00 zł</t>
-  </si>
-  <si>
-    <t>657,00 zł</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>1 364,00 zł</t>
-  </si>
-  <si>
-    <t>1 596,00 zł</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>1 023,00 zł</t>
-  </si>
-  <si>
-    <t>1 197,00 zł</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>1 313,00 zł</t>
-  </si>
-  <si>
-    <t>1 602,00 zł</t>
-  </si>
-  <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
-    <t>656,00 zł</t>
-  </si>
-  <si>
-    <t>768,00 zł</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>1 477,00 zł</t>
-  </si>
-  <si>
-    <t>1 861,00 zł</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>791,00 zł</t>
-  </si>
-  <si>
-    <t>949,00 zł</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>579,00 zł</t>
-  </si>
-  <si>
-    <t>799,00 zł</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>1 390,00 zł</t>
-  </si>
-  <si>
-    <t>1 793,00 zł</t>
-  </si>
-  <si>
-    <t>938,00 zł</t>
-  </si>
-  <si>
-    <t>1 079,00 zł</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>1 468,00 zł</t>
-  </si>
-  <si>
-    <t>1 879,00 zł</t>
-  </si>
-  <si>
-    <t>770,00 zł</t>
-  </si>
-  <si>
-    <t>1 078,00 zł</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>701,00 zł</t>
-  </si>
-  <si>
-    <t>883,00 zł</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -1452,16 +1452,16 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3">
+        <v>4</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3">
         <v>5</v>
-      </c>
-      <c r="C17" s="3">
-        <v>5</v>
-      </c>
-      <c r="D17" s="3">
-        <v>4</v>
-      </c>
-      <c r="E17" s="3">
-        <v>3</v>
       </c>
       <c r="F17" s="3">
         <v>6</v>
@@ -1476,16 +1476,16 @@
         <v>4</v>
       </c>
       <c r="C18" s="3">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
         <v>3</v>
       </c>
-      <c r="D18" s="3">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3">
-        <v>6</v>
-      </c>
       <c r="F18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -1494,16 +1494,16 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D19" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" s="3">
         <v>2</v>
@@ -1515,19 +1515,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C20" s="3">
         <v>4</v>
       </c>
       <c r="D20" s="3">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3">
         <v>3</v>
       </c>
-      <c r="E20" s="3">
-        <v>5</v>
-      </c>
       <c r="F20" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -1536,19 +1536,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3</v>
+      </c>
+      <c r="D21" s="3">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>4</v>
       </c>
-      <c r="C21" s="3">
-        <v>4</v>
-      </c>
-      <c r="D21" s="3">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3">
-        <v>5</v>
-      </c>
       <c r="F21" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G21" s="5"/>
     </row>
@@ -1557,7 +1557,7 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C22" s="3">
         <v>3</v>
@@ -1566,10 +1566,10 @@
         <v>6</v>
       </c>
       <c r="E22" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F22" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G22" s="5"/>
     </row>
@@ -1581,16 +1581,16 @@
         <v>6</v>
       </c>
       <c r="C23" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E23" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F23" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G23" s="5"/>
     </row>
@@ -1599,13 +1599,13 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C24" s="3">
         <v>5</v>
       </c>
       <c r="D24" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E24" s="3">
         <v>4</v>
@@ -1620,19 +1620,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
+        <v>6</v>
+      </c>
+      <c r="C25" s="3">
+        <v>3</v>
+      </c>
+      <c r="D25" s="3">
+        <v>4</v>
+      </c>
+      <c r="E25" s="3">
+        <v>3</v>
+      </c>
+      <c r="F25" s="3">
         <v>2</v>
-      </c>
-      <c r="C25" s="3">
-        <v>2</v>
-      </c>
-      <c r="D25" s="3">
-        <v>5</v>
-      </c>
-      <c r="E25" s="3">
-        <v>6</v>
-      </c>
-      <c r="F25" s="3">
-        <v>6</v>
       </c>
       <c r="G25" s="5"/>
     </row>
@@ -1641,19 +1641,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C26" s="3">
         <v>3</v>
       </c>
       <c r="D26" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E26" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F26" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G26" s="5"/>
     </row>
@@ -1662,19 +1662,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C27" s="3">
         <v>3</v>
       </c>
       <c r="D27" s="3">
+        <v>6</v>
+      </c>
+      <c r="E27" s="3">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3">
         <v>3</v>
-      </c>
-      <c r="E27" s="3">
-        <v>2</v>
-      </c>
-      <c r="F27" s="3">
-        <v>2</v>
       </c>
       <c r="G27" s="5"/>
     </row>
@@ -1683,10 +1683,10 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C28" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" s="3">
         <v>2</v>
@@ -1695,7 +1695,7 @@
         <v>5</v>
       </c>
       <c r="F28" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G28" s="5"/>
     </row>
@@ -1817,7 +1817,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -1847,7 +1847,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1862,7 +1862,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1877,7 +1877,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1892,7 +1892,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -2009,7 +2009,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="3">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -2021,7 +2021,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -2033,7 +2033,7 @@
         <v>70</v>
       </c>
       <c r="C17" s="3">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -2045,7 +2045,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="3">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -2057,7 +2057,7 @@
         <v>74</v>
       </c>
       <c r="C19" s="3">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -2105,7 +2105,7 @@
         <v>77</v>
       </c>
       <c r="C24" s="3">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -2117,7 +2117,7 @@
         <v>78</v>
       </c>
       <c r="C25" s="3">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -2129,7 +2129,7 @@
         <v>79</v>
       </c>
       <c r="C26" s="3">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -2141,7 +2141,7 @@
         <v>80</v>
       </c>
       <c r="C27" s="3">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D27" s="3"/>
     </row>
@@ -2153,7 +2153,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="3">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -2201,7 +2201,7 @@
         <v>84</v>
       </c>
       <c r="C33" s="3">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D33" s="3"/>
     </row>
@@ -2213,7 +2213,7 @@
         <v>85</v>
       </c>
       <c r="C34" s="3">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -2225,7 +2225,7 @@
         <v>86</v>
       </c>
       <c r="C35" s="3">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -2237,7 +2237,7 @@
         <v>87</v>
       </c>
       <c r="C36" s="3">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D36" s="3"/>
     </row>
@@ -2249,7 +2249,7 @@
         <v>88</v>
       </c>
       <c r="C37" s="3">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D37" s="3"/>
     </row>
@@ -2283,10 +2283,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A19" sqref="A19:L19"/>
+      <selection activeCell="A21" sqref="A21:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2398,19 +2398,19 @@
         <v>2</v>
       </c>
       <c r="F12" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G12" s="3">
         <v>4</v>
       </c>
       <c r="H12" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I12" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J12" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -2424,25 +2424,25 @@
         <v>109</v>
       </c>
       <c r="D13" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F13" s="3">
         <v>3</v>
       </c>
       <c r="G13" s="3">
+        <v>3</v>
+      </c>
+      <c r="H13" s="3">
+        <v>2</v>
+      </c>
+      <c r="I13" s="3">
+        <v>2</v>
+      </c>
+      <c r="J13" s="3">
         <v>6</v>
-      </c>
-      <c r="H13" s="3">
-        <v>5</v>
-      </c>
-      <c r="I13" s="3">
-        <v>5</v>
-      </c>
-      <c r="J13" s="3">
-        <v>3</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2456,25 +2456,25 @@
         <v>111</v>
       </c>
       <c r="D14" s="3">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
         <v>6</v>
       </c>
-      <c r="E14" s="3">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3">
-        <v>6</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>3</v>
-      </c>
-      <c r="I14" s="3">
-        <v>2</v>
-      </c>
-      <c r="J14" s="3">
-        <v>5</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2482,31 +2482,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D15" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E15" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" s="3">
         <v>5</v>
       </c>
       <c r="G15" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H15" s="3">
         <v>2</v>
       </c>
       <c r="I15" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J15" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2514,31 +2514,31 @@
     <row r="16" spans="1:12">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D16" s="3">
         <v>5</v>
       </c>
       <c r="E16" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" s="3">
         <v>5</v>
       </c>
       <c r="G16" s="3">
+        <v>4</v>
+      </c>
+      <c r="H16" s="3">
+        <v>3</v>
+      </c>
+      <c r="I16" s="3">
+        <v>6</v>
+      </c>
+      <c r="J16" s="3">
         <v>2</v>
-      </c>
-      <c r="H16" s="3">
-        <v>5</v>
-      </c>
-      <c r="I16" s="3">
-        <v>5</v>
-      </c>
-      <c r="J16" s="3">
-        <v>6</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -2546,72 +2546,136 @@
     <row r="17" spans="1:12">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>116</v>
       </c>
       <c r="D17" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F17" s="3">
         <v>2</v>
       </c>
       <c r="G17" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H17" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I17" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J17" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
+      <c r="C18" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="3">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>6</v>
+      </c>
+      <c r="F18" s="3">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2</v>
+      </c>
+      <c r="H18" s="3">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
+        <v>6</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="3">
+        <v>6</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3">
+        <v>2</v>
+      </c>
+      <c r="H19" s="3">
+        <v>4</v>
+      </c>
+      <c r="I19" s="3">
+        <v>3</v>
+      </c>
+      <c r="J19" s="3">
+        <v>2</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="D21:L21"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2624,10 +2688,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A30" sqref="A30:B32"/>
+      <selection activeCell="A27" sqref="A27:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2639,7 +2703,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2649,243 +2713,210 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C24" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="B25" s="3" t="s">
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>171</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="B27" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
+      <c r="B28" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
         <v>173</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B29" s="14" t="s">
         <v>174</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="13" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>177</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>178</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>179</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2903,10 +2934,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A44" sqref="A44:B48"/>
+      <selection activeCell="A45" sqref="A45:B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2922,7 +2953,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2932,75 +2963,75 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="G15" s="12" t="s">
         <v>192</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3008,22 +3039,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3031,22 +3062,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3054,22 +3085,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3077,22 +3108,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3100,22 +3131,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3123,22 +3154,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3146,22 +3177,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3172,19 +3203,19 @@
         <v>205</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3195,19 +3226,19 @@
         <v>205</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3215,22 +3246,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3238,22 +3269,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>245</v>
-      </c>
       <c r="D26" s="3" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>244</v>
+        <v>197</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3261,22 +3292,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>220</v>
-      </c>
       <c r="G27" s="3" t="s">
-        <v>250</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3284,22 +3315,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3307,22 +3338,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>259</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3333,19 +3364,19 @@
         <v>205</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>260</v>
-      </c>
       <c r="E30" s="3" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>203</v>
+        <v>253</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>262</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3353,22 +3384,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3376,22 +3407,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>205</v>
+        <v>258</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3399,22 +3430,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>244</v>
+        <v>203</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3422,22 +3453,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3445,22 +3476,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>251</v>
-      </c>
       <c r="D35" s="3" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>240</v>
+        <v>197</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>225</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3468,22 +3499,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>278</v>
+        <v>224</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>279</v>
+        <v>226</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>209</v>
+        <v>273</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>233</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3491,22 +3522,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>206</v>
+        <v>274</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>283</v>
+        <v>231</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3517,19 +3548,19 @@
         <v>199</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>204</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3537,22 +3568,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>226</v>
+        <v>281</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>288</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3560,67 +3591,90 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>234</v>
+        <v>284</v>
       </c>
       <c r="D40" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="3">
+        <v>26</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G40" s="3" t="s">
+      <c r="F41" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="13" t="s">
-        <v>176</v>
-      </c>
-    </row>
     <row r="44" spans="1:7">
-      <c r="A44" t="s">
-        <v>292</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>180</v>
+      <c r="A44" s="13" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
+        <v>295</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
         <v>296</v>
       </c>
-      <c r="B48" s="14" t="s">
-        <v>180</v>
+      <c r="B49" s="14" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_034.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_034.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="207">
   <si>
     <t>ZESTAW ZADAŃ NR 34 - CZĘŚĆ 1</t>
   </si>
@@ -118,21 +118,6 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
     <t>ZESTAW ZADAŃ NR 34 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -163,39 +148,21 @@
     <t>Długopis niebieski</t>
   </si>
   <si>
-    <t>1,80</t>
-  </si>
-  <si>
     <t>Temperówka</t>
   </si>
   <si>
-    <t>2,70</t>
-  </si>
-  <si>
     <t>Cyrkiel</t>
   </si>
   <si>
-    <t>14,10</t>
-  </si>
-  <si>
     <t>Linijka 30 cm</t>
   </si>
   <si>
-    <t>2,50</t>
-  </si>
-  <si>
     <t>Pędzelek</t>
   </si>
   <si>
-    <t>5,90</t>
-  </si>
-  <si>
     <t>Zeszyt 60 kartek</t>
   </si>
   <si>
-    <t>5,70</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -220,75 +187,30 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>23,95</t>
-  </si>
-  <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>21,90</t>
-  </si>
-  <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>1,44</t>
-  </si>
-  <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>30,83</t>
-  </si>
-  <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>3,21</t>
-  </si>
-  <si>
     <t>Razem Styczeń:</t>
   </si>
   <si>
     <t>Luty:</t>
   </si>
   <si>
-    <t>8,04</t>
-  </si>
-  <si>
-    <t>30,17</t>
-  </si>
-  <si>
-    <t>30,70</t>
-  </si>
-  <si>
-    <t>4,25</t>
-  </si>
-  <si>
-    <t>29,81</t>
-  </si>
-  <si>
     <t>Razem Luty:</t>
   </si>
   <si>
     <t>Marzec:</t>
   </si>
   <si>
-    <t>8,49</t>
-  </si>
-  <si>
-    <t>25,89</t>
-  </si>
-  <si>
-    <t>9,69</t>
-  </si>
-  <si>
-    <t>28,27</t>
-  </si>
-  <si>
-    <t>24,47</t>
-  </si>
-  <si>
     <t>Razem Marzec:</t>
   </si>
   <si>
@@ -307,7 +229,7 @@
     <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
   </si>
   <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
     <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
@@ -421,117 +343,78 @@
     <t>10.10.1996</t>
   </si>
   <si>
-    <t>12 010,00 zł</t>
-  </si>
-  <si>
     <t>Jakub Szymański</t>
   </si>
   <si>
     <t>23.11.1987</t>
   </si>
   <si>
-    <t>7 220,00 zł</t>
-  </si>
-  <si>
     <t>Adam Krawczyk</t>
   </si>
   <si>
     <t>16.11.1978</t>
   </si>
   <si>
-    <t>13 197,00 zł</t>
-  </si>
-  <si>
     <t>Jan Kaczmarek</t>
   </si>
   <si>
     <t>22.01.1998</t>
   </si>
   <si>
-    <t>3 688,00 zł</t>
-  </si>
-  <si>
     <t>Hanna Malinowska</t>
   </si>
   <si>
     <t>02.09.1979</t>
   </si>
   <si>
-    <t>11 746,00 zł</t>
-  </si>
-  <si>
     <t>Julia Olszewska</t>
   </si>
   <si>
     <t>23.01.1984</t>
   </si>
   <si>
-    <t>9 040,00 zł</t>
-  </si>
-  <si>
     <t>Mikołaj Kwiatkowski</t>
   </si>
   <si>
     <t>18.03.1983</t>
   </si>
   <si>
-    <t>8 288,00 zł</t>
-  </si>
-  <si>
     <t>Zuzanna Wilk</t>
   </si>
   <si>
     <t>12.08.1995</t>
   </si>
   <si>
-    <t>12 658,00 zł</t>
-  </si>
-  <si>
     <t>Hanna Górska</t>
   </si>
   <si>
     <t>14.10.1976</t>
   </si>
   <si>
-    <t>14 850,00 zł</t>
-  </si>
-  <si>
     <t>Hanna Wilk</t>
   </si>
   <si>
     <t>25.11.1978</t>
   </si>
   <si>
-    <t>3 269,00 zł</t>
-  </si>
-  <si>
     <t>Julia Malinowska</t>
   </si>
   <si>
     <t>09.03.1981</t>
   </si>
   <si>
-    <t>7 903,00 zł</t>
-  </si>
-  <si>
     <t>Wojciech Piotrowski</t>
   </si>
   <si>
     <t>24.06.1997</t>
   </si>
   <si>
-    <t>6 298,00 zł</t>
-  </si>
-  <si>
     <t>Jan Jankowski</t>
   </si>
   <si>
     <t>17.02.2002</t>
   </si>
   <si>
-    <t>10 472,00 zł</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -544,9 +427,6 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>=...</t>
-  </si>
-  <si>
     <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
@@ -607,12 +487,6 @@
     <t>Klawiatura mechaniczna</t>
   </si>
   <si>
-    <t>1 394,00 zł</t>
-  </si>
-  <si>
-    <t>1 812,00 zł</t>
-  </si>
-  <si>
     <t>Monika Krawczyk</t>
   </si>
   <si>
@@ -625,12 +499,6 @@
     <t>Router Wi-Fi 6</t>
   </si>
   <si>
-    <t>727,00 zł</t>
-  </si>
-  <si>
-    <t>894,00 zł</t>
-  </si>
-  <si>
     <t>Paweł Kwiatkowski</t>
   </si>
   <si>
@@ -643,12 +511,6 @@
     <t>Konsola do gier</t>
   </si>
   <si>
-    <t>1 083,00 zł</t>
-  </si>
-  <si>
-    <t>1 235,00 zł</t>
-  </si>
-  <si>
     <t>Michał Jankowski</t>
   </si>
   <si>
@@ -658,12 +520,6 @@
     <t>Monitor 24" 4K</t>
   </si>
   <si>
-    <t>1 445,00 zł</t>
-  </si>
-  <si>
-    <t>2 023,00 zł</t>
-  </si>
-  <si>
     <t>Krzysztof Lewandowski</t>
   </si>
   <si>
@@ -673,12 +529,6 @@
     <t>Tablet 10"</t>
   </si>
   <si>
-    <t>1 454,00 zł</t>
-  </si>
-  <si>
-    <t>1 818,00 zł</t>
-  </si>
-  <si>
     <t>Andrzej Woźniak</t>
   </si>
   <si>
@@ -688,111 +538,45 @@
     <t>Zasilacz 650W</t>
   </si>
   <si>
-    <t>1 453,00 zł</t>
-  </si>
-  <si>
-    <t>1 656,00 zł</t>
-  </si>
-  <si>
     <t>Smartphone 5G 128GB</t>
   </si>
   <si>
-    <t>795,00 zł</t>
-  </si>
-  <si>
-    <t>1 049,00 zł</t>
-  </si>
-  <si>
     <t>kujawsko-pomorskie</t>
   </si>
   <si>
     <t>Drukarka laserowa</t>
   </si>
   <si>
-    <t>1 272,00 zł</t>
-  </si>
-  <si>
-    <t>1 488,00 zł</t>
-  </si>
-  <si>
     <t>Maria Dąbrowska</t>
   </si>
   <si>
     <t>pomorskie</t>
   </si>
   <si>
-    <t>1 067,00 zł</t>
-  </si>
-  <si>
-    <t>1 270,00 zł</t>
-  </si>
-  <si>
     <t>Mysz gamingowa</t>
   </si>
   <si>
-    <t>1 147,00 zł</t>
-  </si>
-  <si>
-    <t>1 411,00 zł</t>
-  </si>
-  <si>
     <t>Ewa Kowalczyk</t>
   </si>
   <si>
     <t>styczeń</t>
   </si>
   <si>
-    <t>723,00 zł</t>
-  </si>
-  <si>
-    <t>925,00 zł</t>
-  </si>
-  <si>
     <t>Płyta główna</t>
   </si>
   <si>
-    <t>644,00 zł</t>
-  </si>
-  <si>
-    <t>721,00 zł</t>
-  </si>
-  <si>
     <t>Agnieszka Wojciechowska</t>
   </si>
   <si>
-    <t>1 128,00 zł</t>
-  </si>
-  <si>
-    <t>1 365,00 zł</t>
-  </si>
-  <si>
     <t>mazowieckie</t>
   </si>
   <si>
-    <t>589,00 zł</t>
-  </si>
-  <si>
-    <t>789,00 zł</t>
-  </si>
-  <si>
-    <t>902,00 zł</t>
-  </si>
-  <si>
-    <t>1 010,00 zł</t>
-  </si>
-  <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
     <t>Słuchawki bezprzewodowe</t>
   </si>
   <si>
-    <t>1 220,00 zł</t>
-  </si>
-  <si>
-    <t>1 476,00 zł</t>
-  </si>
-  <si>
     <t>łódzkie</t>
   </si>
   <si>
@@ -802,97 +586,43 @@
     <t>Powerbank 20000mAh</t>
   </si>
   <si>
-    <t>1 278,00 zł</t>
-  </si>
-  <si>
-    <t>1 674,00 zł</t>
-  </si>
-  <si>
     <t>Jan Kowalski</t>
   </si>
   <si>
     <t>Głośnik Bluetooth</t>
   </si>
   <si>
-    <t>1 150,00 zł</t>
-  </si>
-  <si>
-    <t>1 357,00 zł</t>
-  </si>
-  <si>
     <t>Projektor multimedialny</t>
   </si>
   <si>
-    <t>1 875,00 zł</t>
-  </si>
-  <si>
     <t>Tomasz Kamiński</t>
   </si>
   <si>
-    <t>806,00 zł</t>
-  </si>
-  <si>
-    <t>1 120,00 zł</t>
-  </si>
-  <si>
     <t>dolnośląskie</t>
   </si>
   <si>
-    <t>1 395,00 zł</t>
-  </si>
-  <si>
     <t>Anna Nowak</t>
   </si>
   <si>
     <t>Pamięć RAM 16GB</t>
   </si>
   <si>
-    <t>1 279,00 zł</t>
-  </si>
-  <si>
-    <t>1 420,00 zł</t>
-  </si>
-  <si>
     <t>Dysk SSD 1TB</t>
   </si>
   <si>
-    <t>1 098,00 zł</t>
-  </si>
-  <si>
-    <t>1 383,00 zł</t>
-  </si>
-  <si>
     <t>opolskie</t>
   </si>
   <si>
     <t>Obudowa gamingowa</t>
   </si>
   <si>
-    <t>805,00 zł</t>
-  </si>
-  <si>
-    <t>1 038,00 zł</t>
-  </si>
-  <si>
     <t>Odtwarzacz DVD</t>
   </si>
   <si>
-    <t>1 171,00 zł</t>
-  </si>
-  <si>
-    <t>1 370,00 zł</t>
-  </si>
-  <si>
     <t>lubuskie</t>
   </si>
   <si>
     <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>865,00 zł</t>
-  </si>
-  <si>
-    <t>960,00 zł</t>
   </si>
   <si>
     <t>świętokrzyskie</t>
@@ -917,7 +647,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; zł&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <b val="0"/>
@@ -974,14 +706,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -992,8 +724,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1024,30 +756,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1350,7 +1083,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1425,25 +1158,25 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1466,7 +1199,7 @@
       <c r="F17" s="3">
         <v>6</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
@@ -1487,7 +1220,7 @@
       <c r="F18" s="3">
         <v>3</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
@@ -1508,7 +1241,7 @@
       <c r="F19" s="3">
         <v>2</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
@@ -1529,7 +1262,7 @@
       <c r="F20" s="3">
         <v>6</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -1550,7 +1283,7 @@
       <c r="F21" s="3">
         <v>6</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -1571,7 +1304,7 @@
       <c r="F22" s="3">
         <v>4</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -1592,7 +1325,7 @@
       <c r="F23" s="3">
         <v>4</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -1613,7 +1346,7 @@
       <c r="F24" s="3">
         <v>4</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -1634,7 +1367,7 @@
       <c r="F25" s="3">
         <v>2</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -1655,7 +1388,7 @@
       <c r="F26" s="3">
         <v>4</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -1676,7 +1409,7 @@
       <c r="F27" s="3">
         <v>3</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
@@ -1697,27 +1430,17 @@
       <c r="F28" s="3">
         <v>3</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1751,7 +1474,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1771,7 +1494,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1781,29 +1504,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1811,99 +1534,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1.8</v>
       </c>
       <c r="D13" s="3">
         <v>5</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2.7</v>
       </c>
       <c r="D14" s="3">
         <v>10</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <v>14.1</v>
       </c>
       <c r="D15" s="3">
         <v>5</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2.5</v>
       </c>
       <c r="D16" s="3">
         <v>2</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="7">
+        <v>5.9</v>
       </c>
       <c r="D17" s="3">
         <v>2</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>5.7</v>
       </c>
       <c r="D18" s="3">
         <v>6</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1936,7 +1659,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1961,113 +1684,113 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>64</v>
+      <c r="A13" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="7">
+        <v>23.95</v>
       </c>
       <c r="C15" s="3">
         <v>35</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="7">
+        <v>21.9</v>
       </c>
       <c r="C16" s="3">
         <v>6</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1.44</v>
       </c>
       <c r="C17" s="3">
         <v>27</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="7">
+        <v>30.83</v>
       </c>
       <c r="C18" s="3">
         <v>47</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="7">
+        <v>3.21</v>
       </c>
       <c r="C19" s="3">
         <v>18</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -2076,94 +1799,94 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>76</v>
+      <c r="A22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="7">
+        <v>8.039999999999999</v>
       </c>
       <c r="C24" s="3">
         <v>45</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="7">
+        <v>30.17</v>
       </c>
       <c r="C25" s="3">
         <v>32</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="7">
+        <v>30.7</v>
       </c>
       <c r="C26" s="3">
         <v>11</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="7">
+        <v>4.25</v>
       </c>
       <c r="C27" s="3">
         <v>6</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="7">
+        <v>29.81</v>
       </c>
       <c r="C28" s="3">
         <v>7</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="C29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -2172,98 +1895,98 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>83</v>
+      <c r="A31" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>45</v>
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="7">
+        <v>8.49</v>
       </c>
       <c r="C33" s="3">
         <v>44</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="B34" s="7">
+        <v>25.89</v>
       </c>
       <c r="C34" s="3">
         <v>48</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="B35" s="7">
+        <v>9.69</v>
       </c>
       <c r="C35" s="3">
         <v>41</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="7">
+        <v>28.27</v>
       </c>
       <c r="C36" s="3">
         <v>48</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="7">
+        <v>24.47</v>
       </c>
       <c r="C37" s="3">
         <v>10</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2286,7 +2009,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A21" sqref="A21:L21"/>
+      <selection activeCell="A11" sqref="A11:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2306,90 +2029,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>91</v>
+      <c r="A1" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>105</v>
+      <c r="J11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>5</v>
@@ -2412,16 +2135,16 @@
       <c r="J12" s="3">
         <v>2</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3">
         <v>3</v>
@@ -2444,16 +2167,16 @@
       <c r="J13" s="3">
         <v>6</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3">
         <v>3</v>
@@ -2476,16 +2199,16 @@
       <c r="J14" s="3">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D15" s="3">
         <v>2</v>
@@ -2508,16 +2231,16 @@
       <c r="J15" s="3">
         <v>4</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="D16" s="3">
         <v>5</v>
@@ -2540,16 +2263,16 @@
       <c r="J16" s="3">
         <v>2</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="D17" s="3">
         <v>4</v>
@@ -2572,16 +2295,16 @@
       <c r="J17" s="3">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="D18" s="3">
         <v>5</v>
@@ -2604,16 +2327,16 @@
       <c r="J18" s="3">
         <v>2</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="3"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="D19" s="3">
         <v>6</v>
@@ -2636,40 +2359,40 @@
       <c r="J19" s="3">
         <v>2</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
+      <c r="A20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
+      <c r="A21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2702,222 +2425,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>122</v>
+      <c r="A1" s="15" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>130</v>
+      <c r="A10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>133</v>
+        <v>106</v>
+      </c>
+      <c r="C11" s="7">
+        <v>12010</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>136</v>
+        <v>108</v>
+      </c>
+      <c r="C12" s="7">
+        <v>7220</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>139</v>
+        <v>110</v>
+      </c>
+      <c r="C13" s="7">
+        <v>13197</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>142</v>
+        <v>112</v>
+      </c>
+      <c r="C14" s="7">
+        <v>3688</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>145</v>
+        <v>114</v>
+      </c>
+      <c r="C15" s="7">
+        <v>11746</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>148</v>
+        <v>116</v>
+      </c>
+      <c r="C16" s="7">
+        <v>9040</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>151</v>
+        <v>118</v>
+      </c>
+      <c r="C17" s="7">
+        <v>8288</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>154</v>
+        <v>120</v>
+      </c>
+      <c r="C18" s="7">
+        <v>12658</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>157</v>
+        <v>122</v>
+      </c>
+      <c r="C19" s="7">
+        <v>14850</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>160</v>
+        <v>124</v>
+      </c>
+      <c r="C20" s="7">
+        <v>3269</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>163</v>
+        <v>126</v>
+      </c>
+      <c r="C21" s="7">
+        <v>7903</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>166</v>
+        <v>128</v>
+      </c>
+      <c r="C22" s="7">
+        <v>6298</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>169</v>
+        <v>130</v>
+      </c>
+      <c r="C23" s="7">
+        <v>10472</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="13" t="s">
-        <v>170</v>
+      <c r="A26" s="17" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>171</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>172</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B28" s="6"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>173</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B29" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2952,86 +2669,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>175</v>
+      <c r="A1" s="15" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>192</v>
+      <c r="A15" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3039,22 +2756,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>196</v>
+        <v>154</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1394</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1812</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3062,22 +2779,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>202</v>
+        <v>158</v>
+      </c>
+      <c r="D17" s="7">
+        <v>727</v>
+      </c>
+      <c r="E17" s="7">
+        <v>894</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3085,22 +2802,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>208</v>
+        <v>162</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1083</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1235</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3108,22 +2825,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>213</v>
+        <v>165</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1445</v>
+      </c>
+      <c r="E19" s="7">
+        <v>2023</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3131,22 +2848,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>218</v>
+        <v>168</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1454</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1818</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>220</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3154,22 +2871,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>223</v>
+        <v>171</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1453</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1656</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3177,22 +2894,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>226</v>
+        <v>172</v>
+      </c>
+      <c r="D22" s="7">
+        <v>795</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1049</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3200,22 +2917,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>230</v>
+        <v>174</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1272</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1488</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>231</v>
+        <v>175</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>232</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3223,22 +2940,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>234</v>
+        <v>158</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1067</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1270</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3246,22 +2963,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>237</v>
+        <v>177</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1147</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1411</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>238</v>
+        <v>178</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3269,22 +2986,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>239</v>
+        <v>179</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>241</v>
+        <v>165</v>
+      </c>
+      <c r="D26" s="7">
+        <v>723</v>
+      </c>
+      <c r="E26" s="7">
+        <v>925</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3292,22 +3009,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>244</v>
+        <v>180</v>
+      </c>
+      <c r="D27" s="7">
+        <v>644</v>
+      </c>
+      <c r="E27" s="7">
+        <v>721</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>245</v>
+        <v>181</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3315,22 +3032,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>239</v>
+        <v>179</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>247</v>
+        <v>180</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1128</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1365</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>245</v>
+        <v>181</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>248</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3338,22 +3055,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>250</v>
+        <v>171</v>
+      </c>
+      <c r="D29" s="7">
+        <v>589</v>
+      </c>
+      <c r="E29" s="7">
+        <v>789</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3361,22 +3078,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>252</v>
+        <v>174</v>
+      </c>
+      <c r="D30" s="7">
+        <v>902</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1010</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>253</v>
+        <v>183</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3384,22 +3101,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>256</v>
+        <v>184</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1220</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1476</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>238</v>
+        <v>178</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>257</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3407,22 +3124,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>258</v>
+        <v>186</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>261</v>
+        <v>187</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1278</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1674</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>262</v>
+        <v>188</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>232</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3430,22 +3147,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>239</v>
+        <v>179</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>265</v>
+        <v>189</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1150</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1357</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3453,22 +3170,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>239</v>
+        <v>179</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>267</v>
+        <v>190</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1476</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1875</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>268</v>
+        <v>191</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3476,22 +3193,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>270</v>
+        <v>165</v>
+      </c>
+      <c r="D35" s="7">
+        <v>806</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1120</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>271</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3499,22 +3216,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>239</v>
+        <v>179</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>272</v>
+        <v>172</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1049</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1395</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>273</v>
+        <v>193</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>271</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3522,22 +3239,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>276</v>
+        <v>194</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1279</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1420</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>231</v>
+        <v>175</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3545,22 +3262,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>279</v>
+        <v>195</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1098</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1383</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>280</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3568,22 +3285,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>283</v>
+        <v>197</v>
+      </c>
+      <c r="D39" s="7">
+        <v>805</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1038</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>268</v>
+        <v>191</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3591,22 +3308,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>286</v>
+        <v>198</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1171</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1370</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>231</v>
+        <v>175</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3614,68 +3331,58 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>258</v>
+        <v>186</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>290</v>
+        <v>200</v>
+      </c>
+      <c r="D41" s="7">
+        <v>865</v>
+      </c>
+      <c r="E41" s="7">
+        <v>960</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>291</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="13" t="s">
-        <v>170</v>
+      <c r="A44" s="17" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>292</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="B45" s="6"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>293</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B46" s="6"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>294</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>295</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>296</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="B49" s="6"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_034.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_034.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Zadanie 3 - Sprzedaż" sheetId="3" r:id="rId6"/>
     <sheet name="Zadanie 4 - Średnie klasy" sheetId="4" r:id="rId7"/>
     <sheet name="Zadanie 5 - Dane osobowe" sheetId="5" r:id="rId8"/>
-    <sheet name="Zadanie 6 - Analiza" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 6 - Godziny pracy" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 7 - Analiza" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="210">
   <si>
     <t>ZESTAW ZADAŃ NR 34 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +62,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Natalia Olszewska</t>
-  </si>
-  <si>
-    <t>Aleksander Krawczyk</t>
-  </si>
-  <si>
-    <t>Maja Kaźmierczak</t>
-  </si>
-  <si>
-    <t>Szymon Woźniak</t>
-  </si>
-  <si>
-    <t>Adam Woźniak</t>
+    <t>Amelia Jaworska</t>
+  </si>
+  <si>
+    <t>Jan Kowalczyk</t>
+  </si>
+  <si>
+    <t>Oliwia Olszewska</t>
+  </si>
+  <si>
+    <t>Mikołaj Dąbrowski</t>
+  </si>
+  <si>
+    <t>Jan Krawczyk</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -118,6 +119,9 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
+    <t>ŚREDNIA KLASY:</t>
+  </si>
+  <si>
     <t>ZESTAW ZADAŃ NR 34 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -145,22 +149,22 @@
     <t>Razem (zł)</t>
   </si>
   <si>
-    <t>Długopis niebieski</t>
+    <t>Blok rysunkowy A4</t>
+  </si>
+  <si>
+    <t>Zeszyt 60 kartek</t>
   </si>
   <si>
     <t>Temperówka</t>
   </si>
   <si>
-    <t>Cyrkiel</t>
-  </si>
-  <si>
     <t>Linijka 30 cm</t>
   </si>
   <si>
     <t>Pędzelek</t>
   </si>
   <si>
-    <t>Zeszyt 60 kartek</t>
+    <t>Ołówek HB</t>
   </si>
   <si>
     <t>SUMA:</t>
@@ -217,6 +221,9 @@
     <t>SUMA z 3 miesięcy:</t>
   </si>
   <si>
+    <t>Średnia z 3 miesięcy:</t>
+  </si>
+  <si>
     <t>ZADANIE 4: ŚREDNIE KLASY</t>
   </si>
   <si>
@@ -232,7 +239,7 @@
     <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,75, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
   </si>
   <si>
     <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
@@ -259,49 +266,37 @@
     <t>Średnia ucznia</t>
   </si>
   <si>
-    <t>Czy pasek?</t>
+    <t>Czy śrecnia powyżej 4,75?</t>
+  </si>
+  <si>
+    <t>Kacper</t>
+  </si>
+  <si>
+    <t>Kowalczyk</t>
+  </si>
+  <si>
+    <t>Amelia</t>
+  </si>
+  <si>
+    <t>Bednarska</t>
   </si>
   <si>
     <t>Anna</t>
   </si>
   <si>
-    <t>Borkowska</t>
-  </si>
-  <si>
-    <t>Jakub</t>
-  </si>
-  <si>
-    <t>Zieliński</t>
-  </si>
-  <si>
-    <t>Filip</t>
-  </si>
-  <si>
-    <t>Kaczmarek</t>
+    <t>Wilk</t>
   </si>
   <si>
     <t>Szymon</t>
   </si>
   <si>
-    <t>Dąbrowski</t>
-  </si>
-  <si>
-    <t>Emilia</t>
-  </si>
-  <si>
-    <t>Piekarska</t>
-  </si>
-  <si>
     <t>Kozłowski</t>
   </si>
   <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>Piotrowski</t>
-  </si>
-  <si>
-    <t>Jan</t>
+    <t>Antoni</t>
+  </si>
+  <si>
+    <t>Wiśniewski</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -337,97 +332,112 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Wojciech Kamiński</t>
-  </si>
-  <si>
-    <t>10.10.1996</t>
-  </si>
-  <si>
-    <t>Jakub Szymański</t>
-  </si>
-  <si>
-    <t>23.11.1987</t>
-  </si>
-  <si>
-    <t>Adam Krawczyk</t>
-  </si>
-  <si>
-    <t>16.11.1978</t>
-  </si>
-  <si>
-    <t>Jan Kaczmarek</t>
-  </si>
-  <si>
-    <t>22.01.1998</t>
-  </si>
-  <si>
-    <t>Hanna Malinowska</t>
-  </si>
-  <si>
-    <t>02.09.1979</t>
-  </si>
-  <si>
-    <t>Julia Olszewska</t>
-  </si>
-  <si>
-    <t>23.01.1984</t>
-  </si>
-  <si>
-    <t>Mikołaj Kwiatkowski</t>
-  </si>
-  <si>
-    <t>18.03.1983</t>
-  </si>
-  <si>
-    <t>Zuzanna Wilk</t>
-  </si>
-  <si>
-    <t>12.08.1995</t>
-  </si>
-  <si>
-    <t>Hanna Górska</t>
-  </si>
-  <si>
-    <t>14.10.1976</t>
+    <t>Jakub Krawczyk</t>
+  </si>
+  <si>
+    <t>Hanna Olszewska</t>
+  </si>
+  <si>
+    <t>Aleksander Kaczmarek</t>
+  </si>
+  <si>
+    <t>Julia Kubiak</t>
+  </si>
+  <si>
+    <t>Anna Sadowska</t>
+  </si>
+  <si>
+    <t>Szymon Wiśniewski</t>
+  </si>
+  <si>
+    <t>Filip Mazur</t>
+  </si>
+  <si>
+    <t>Jakub Kowalczyk</t>
+  </si>
+  <si>
+    <t>Julia Urbaniak</t>
+  </si>
+  <si>
+    <t>Filip Kamiński</t>
+  </si>
+  <si>
+    <t>OBLICZENIA:</t>
+  </si>
+  <si>
+    <t>Liczba osób urodzonych w 1998 roku:</t>
+  </si>
+  <si>
+    <t>Największe zarobki:</t>
+  </si>
+  <si>
+    <t>Najmniejsze zarobki:</t>
+  </si>
+  <si>
+    <t>ZADANIE 6 - DANE OSOBOWE I ILOŚĆ GODZIN PRACY</t>
+  </si>
+  <si>
+    <t>1. Oblicz ilość przepracowanych godzin dla każdej osoby</t>
+  </si>
+  <si>
+    <t>2. Podaj zarobki dla każdej osoby (stawka godzinowa × ilość przepracowanych godzin)</t>
+  </si>
+  <si>
+    <t>Stawka godzinowa (zł/h):</t>
+  </si>
+  <si>
+    <t>Ilość przepracowanych godzin</t>
+  </si>
+  <si>
+    <t>Filip Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Kacper Woźniak</t>
+  </si>
+  <si>
+    <t>Maja Górska</t>
+  </si>
+  <si>
+    <t>Adam Kowalczyk</t>
+  </si>
+  <si>
+    <t>Jan Kozłowski</t>
+  </si>
+  <si>
+    <t>Antoni Wojciechowski</t>
+  </si>
+  <si>
+    <t>Aleksander Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Wojciech Woźniak</t>
+  </si>
+  <si>
+    <t>Wojciech Kowalski</t>
+  </si>
+  <si>
+    <t>Natalia Urbaniak</t>
+  </si>
+  <si>
+    <t>Anna Wilk</t>
+  </si>
+  <si>
+    <t>Amelia Rogalska</t>
+  </si>
+  <si>
+    <t>Emilia Sikorska</t>
+  </si>
+  <si>
+    <t>Szymon Wojciechowski</t>
   </si>
   <si>
     <t>Hanna Wilk</t>
   </si>
   <si>
-    <t>25.11.1978</t>
-  </si>
-  <si>
-    <t>Julia Malinowska</t>
-  </si>
-  <si>
-    <t>09.03.1981</t>
-  </si>
-  <si>
-    <t>Wojciech Piotrowski</t>
-  </si>
-  <si>
-    <t>24.06.1997</t>
-  </si>
-  <si>
-    <t>Jan Jankowski</t>
-  </si>
-  <si>
-    <t>17.02.2002</t>
-  </si>
-  <si>
-    <t>OBLICZENIA:</t>
-  </si>
-  <si>
-    <t>Liczba osób urodzonych w 1998 roku:</t>
-  </si>
-  <si>
-    <t>Największe zarobki:</t>
-  </si>
-  <si>
-    <t>Najmniejsze zarobki:</t>
-  </si>
-  <si>
-    <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
+    <t>Kacper Kowalczyk</t>
+  </si>
+  <si>
+    <t>ZADANIE 7 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
     <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
@@ -481,151 +491,151 @@
     <t>Województwo</t>
   </si>
   <si>
-    <t>kwiecień</t>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>Smartphone 5G 128GB</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>Karta graficzna RTX</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
   </si>
   <si>
     <t>Klawiatura mechaniczna</t>
   </si>
   <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>marzec</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>luty</t>
-  </si>
-  <si>
-    <t>Konsola do gier</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>styczeń</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
+    <t>Anna Nowak</t>
   </si>
   <si>
     <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>czerwiec</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -697,7 +707,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -720,12 +730,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -756,7 +760,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -767,13 +771,12 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1080,7 +1083,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A16" sqref="A16:G16"/>
@@ -1188,16 +1191,16 @@
         <v>4</v>
       </c>
       <c r="C17" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" s="3">
         <v>2</v>
       </c>
       <c r="E17" s="3">
+        <v>6</v>
+      </c>
+      <c r="F17" s="3">
         <v>5</v>
-      </c>
-      <c r="F17" s="3">
-        <v>6</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -1206,7 +1209,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" s="3">
         <v>6</v>
@@ -1215,10 +1218,10 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F18" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -1227,19 +1230,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C19" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E19" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F19" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -1248,19 +1251,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
+        <v>4</v>
+      </c>
+      <c r="C20" s="3">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
         <v>6</v>
       </c>
-      <c r="C20" s="3">
-        <v>4</v>
-      </c>
-      <c r="D20" s="3">
-        <v>2</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3</v>
-      </c>
-      <c r="F20" s="3">
-        <v>6</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -1269,7 +1272,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" s="3">
         <v>3</v>
@@ -1278,10 +1281,10 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F21" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -1293,16 +1296,16 @@
         <v>2</v>
       </c>
       <c r="C22" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" s="3">
         <v>6</v>
       </c>
       <c r="E22" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -1311,19 +1314,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E23" s="3">
         <v>6</v>
       </c>
       <c r="F23" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -1332,19 +1335,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C24" s="3">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3">
         <v>5</v>
-      </c>
-      <c r="D24" s="3">
-        <v>3</v>
-      </c>
-      <c r="E24" s="3">
-        <v>4</v>
-      </c>
-      <c r="F24" s="3">
-        <v>4</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -1353,19 +1356,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C25" s="3">
         <v>3</v>
       </c>
       <c r="D25" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E25" s="3">
         <v>3</v>
       </c>
       <c r="F25" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -1374,19 +1377,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3">
         <v>6</v>
       </c>
-      <c r="C26" s="3">
-        <v>3</v>
-      </c>
       <c r="D26" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" s="3">
         <v>5</v>
       </c>
       <c r="F26" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -1395,16 +1398,16 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C27" s="3">
+        <v>6</v>
+      </c>
+      <c r="D27" s="3">
+        <v>2</v>
+      </c>
+      <c r="E27" s="3">
         <v>3</v>
-      </c>
-      <c r="D27" s="3">
-        <v>6</v>
-      </c>
-      <c r="E27" s="3">
-        <v>5</v>
       </c>
       <c r="F27" s="3">
         <v>3</v>
@@ -1416,19 +1419,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" s="3">
         <v>5</v>
       </c>
       <c r="F28" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -1441,6 +1444,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1474,7 +1483,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1494,7 +1503,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1504,29 +1513,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1534,99 +1543,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1.8</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="8">
+        <v>6.5</v>
       </c>
       <c r="D13" s="3">
-        <v>5</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7">
-        <v>2.7</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="8">
+        <v>4.3</v>
       </c>
       <c r="D14" s="3">
-        <v>10</v>
-      </c>
-      <c r="E14" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7">
-        <v>14.1</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="8">
+        <v>2.1</v>
       </c>
       <c r="D15" s="3">
-        <v>5</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7">
+        <v>45</v>
+      </c>
+      <c r="C16" s="8">
         <v>2.5</v>
       </c>
       <c r="D16" s="3">
-        <v>2</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7">
-        <v>5.9</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="8">
+        <v>5.6</v>
       </c>
       <c r="D17" s="3">
-        <v>2</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7">
-        <v>5.7</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.8</v>
       </c>
       <c r="D18" s="3">
-        <v>6</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1643,10 +1652,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13:D37"/>
+      <selection activeCell="A13" sqref="A13:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1659,7 +1668,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1684,27 +1693,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>53</v>
+      <c r="A13" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1712,85 +1721,85 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <v>23.95</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="8">
+        <v>12.29</v>
       </c>
       <c r="C15" s="3">
-        <v>35</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <v>21.9</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="8">
+        <v>27.27</v>
       </c>
       <c r="C16" s="3">
-        <v>6</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>37</v>
+      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7">
-        <v>1.44</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>11.85</v>
       </c>
       <c r="C17" s="3">
-        <v>27</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>37</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7">
-        <v>30.83</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="8">
+        <v>2.64</v>
       </c>
       <c r="C18" s="3">
-        <v>47</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7">
-        <v>3.21</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="8">
+        <v>30.83</v>
       </c>
       <c r="C19" s="3">
-        <v>18</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -1799,8 +1808,8 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
+      <c r="A22" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1808,85 +1817,85 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7">
-        <v>8.039999999999999</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="8">
+        <v>23.53</v>
       </c>
       <c r="C24" s="3">
-        <v>45</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="7">
-        <v>30.17</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="8">
+        <v>17.69</v>
       </c>
       <c r="C25" s="3">
-        <v>32</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="7">
-        <v>30.7</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="8">
+        <v>19.82</v>
       </c>
       <c r="C26" s="3">
-        <v>11</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7">
-        <v>4.25</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="8">
+        <v>24.93</v>
       </c>
       <c r="C27" s="3">
-        <v>6</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>43</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7">
-        <v>29.81</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="8">
+        <v>19.77</v>
       </c>
       <c r="C28" s="3">
-        <v>7</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -1895,8 +1904,8 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
-        <v>62</v>
+      <c r="A31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1904,89 +1913,97 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="7">
-        <v>8.49</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="8">
+        <v>8.95</v>
       </c>
       <c r="C33" s="3">
-        <v>44</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>38</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="7">
-        <v>25.89</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="8">
+        <v>8.8</v>
       </c>
       <c r="C34" s="3">
-        <v>48</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="7">
-        <v>9.69</v>
+        <v>57</v>
+      </c>
+      <c r="B35" s="8">
+        <v>1.84</v>
       </c>
       <c r="C35" s="3">
-        <v>41</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="7">
-        <v>28.27</v>
+        <v>58</v>
+      </c>
+      <c r="B36" s="8">
+        <v>17.24</v>
       </c>
       <c r="C36" s="3">
-        <v>48</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="7">
-        <v>24.47</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="8">
+        <v>22.14</v>
       </c>
       <c r="C37" s="3">
-        <v>10</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>37</v>
+      </c>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="11"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2006,10 +2023,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A11" sqref="A11:L21"/>
+      <selection activeCell="A11" sqref="A11:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2029,93 +2046,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
+      <c r="A1" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>79</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E12" s="3">
         <v>2</v>
@@ -2124,13 +2141,13 @@
         <v>4</v>
       </c>
       <c r="G12" s="3">
+        <v>2</v>
+      </c>
+      <c r="H12" s="3">
         <v>4</v>
       </c>
-      <c r="H12" s="3">
-        <v>6</v>
-      </c>
       <c r="I12" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J12" s="3">
         <v>2</v>
@@ -2141,31 +2158,31 @@
     <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E13" s="3">
         <v>5</v>
       </c>
       <c r="F13" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G13" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H13" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I13" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J13" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -2173,16 +2190,16 @@
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D14" s="3">
         <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14" s="3">
         <v>3</v>
@@ -2194,10 +2211,10 @@
         <v>4</v>
       </c>
       <c r="I14" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J14" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -2205,31 +2222,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D15" s="3">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3">
         <v>2</v>
       </c>
-      <c r="E15" s="3">
-        <v>4</v>
-      </c>
       <c r="F15" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G15" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15" s="3">
         <v>2</v>
       </c>
       <c r="I15" s="3">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3">
         <v>3</v>
-      </c>
-      <c r="J15" s="3">
-        <v>4</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2237,168 +2254,72 @@
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D16" s="3">
+        <v>6</v>
+      </c>
+      <c r="E16" s="3">
+        <v>6</v>
+      </c>
+      <c r="F16" s="3">
+        <v>6</v>
+      </c>
+      <c r="G16" s="3">
         <v>5</v>
       </c>
-      <c r="E16" s="3">
-        <v>3</v>
-      </c>
-      <c r="F16" s="3">
+      <c r="H16" s="3">
         <v>5</v>
-      </c>
-      <c r="G16" s="3">
-        <v>4</v>
-      </c>
-      <c r="H16" s="3">
-        <v>3</v>
       </c>
       <c r="I16" s="3">
         <v>6</v>
       </c>
       <c r="J16" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="3">
-        <v>4</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2</v>
-      </c>
-      <c r="G17" s="3">
-        <v>5</v>
-      </c>
-      <c r="H17" s="3">
-        <v>6</v>
-      </c>
-      <c r="I17" s="3">
-        <v>5</v>
-      </c>
-      <c r="J17" s="3">
-        <v>3</v>
-      </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="A17" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="3">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3">
-        <v>6</v>
-      </c>
-      <c r="F18" s="3">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3">
-        <v>2</v>
-      </c>
-      <c r="H18" s="3">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3">
-        <v>6</v>
-      </c>
-      <c r="J18" s="3">
-        <v>2</v>
-      </c>
+      <c r="A18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="3">
-        <v>6</v>
-      </c>
-      <c r="E19" s="3">
-        <v>2</v>
-      </c>
-      <c r="F19" s="3">
-        <v>2</v>
-      </c>
-      <c r="G19" s="3">
-        <v>2</v>
-      </c>
-      <c r="H19" s="3">
-        <v>4</v>
-      </c>
-      <c r="I19" s="3">
-        <v>3</v>
-      </c>
-      <c r="J19" s="3">
-        <v>2</v>
-      </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="D21:L21"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="D18:L18"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2411,10 +2332,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A27" sqref="A27:B29"/>
+      <selection activeCell="A26" sqref="A26:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2425,216 +2346,205 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>96</v>
+      <c r="A1" s="14" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="7">
-        <v>12010</v>
+        <v>103</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1999</v>
+      </c>
+      <c r="C11" s="8">
+        <v>5567</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="7">
-        <v>7220</v>
+        <v>104</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C12" s="8">
+        <v>5748</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="7">
-        <v>13197</v>
+        <v>105</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1994</v>
+      </c>
+      <c r="C13" s="8">
+        <v>10054</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="7">
-        <v>3688</v>
+        <v>106</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2004</v>
+      </c>
+      <c r="C14" s="8">
+        <v>4622</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="7">
-        <v>11746</v>
+        <v>107</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1982</v>
+      </c>
+      <c r="C15" s="8">
+        <v>12550</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="7">
-        <v>9040</v>
+        <v>108</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2003</v>
+      </c>
+      <c r="C16" s="8">
+        <v>7235</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="7">
-        <v>8288</v>
+        <v>109</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C17" s="8">
+        <v>8597</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="7">
-        <v>12658</v>
+        <v>103</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1990</v>
+      </c>
+      <c r="C18" s="8">
+        <v>6276</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="7">
-        <v>14850</v>
+        <v>110</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1977</v>
+      </c>
+      <c r="C19" s="8">
+        <v>5602</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3269</v>
+        <v>111</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C20" s="8">
+        <v>13129</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="7">
-        <v>7903</v>
+        <v>112</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C21" s="8">
+        <v>12647</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C22" s="7">
-        <v>6298</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" s="7">
-        <v>10472</v>
+        <v>107</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1994</v>
+      </c>
+      <c r="C22" s="8">
+        <v>7546</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="16" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="17" t="s">
-        <v>131</v>
-      </c>
+      <c r="A26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>132</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="B27" s="7"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>133</v>
-      </c>
-      <c r="B28" s="6"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>134</v>
-      </c>
-      <c r="B29" s="6"/>
+        <v>116</v>
+      </c>
+      <c r="B28" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2647,6 +2557,226 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A10" sqref="A10:C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3">
+        <v>139</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="3">
+        <v>163</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="3">
+        <v>90</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="3">
+        <v>162</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="3">
+        <v>134</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" s="3">
+        <v>194</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="3">
+        <v>183</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" s="3">
+        <v>121</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" s="3">
+        <v>175</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="3">
+        <v>189</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="3">
+        <v>118</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="3">
+        <v>143</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" s="3">
+        <v>158</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" s="3">
+        <v>192</v>
+      </c>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" s="3">
+        <v>168</v>
+      </c>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" s="3">
+        <v>97</v>
+      </c>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" s="3">
+        <v>174</v>
+      </c>
+      <c r="C27" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2669,86 +2799,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>135</v>
+      <c r="A1" s="14" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2756,22 +2886,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1394</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1812</v>
+        <v>157</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1391</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1711</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2779,22 +2909,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D17" s="7">
-        <v>727</v>
-      </c>
-      <c r="E17" s="7">
-        <v>894</v>
+        <v>161</v>
+      </c>
+      <c r="D17" s="8">
+        <v>769</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1046</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2802,22 +2932,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1083</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1235</v>
+        <v>164</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1363</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1731</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2825,22 +2955,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1445</v>
-      </c>
-      <c r="E19" s="7">
-        <v>2023</v>
+        <v>166</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1391</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1530</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2848,22 +2978,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1454</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1818</v>
+        <v>170</v>
+      </c>
+      <c r="D20" s="8">
+        <v>875</v>
+      </c>
+      <c r="E20" s="8">
+        <v>998</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2871,22 +3001,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1453</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1656</v>
+        <v>173</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1116</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1462</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2894,22 +3024,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D22" s="7">
-        <v>795</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1049</v>
+        <v>175</v>
+      </c>
+      <c r="D22" s="8">
+        <v>890</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1015</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2917,22 +3047,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1272</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1488</v>
+        <v>177</v>
+      </c>
+      <c r="D23" s="8">
+        <v>788</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1001</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2940,22 +3070,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1067</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1270</v>
+        <v>180</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1174</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1327</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2963,22 +3093,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1147</v>
-      </c>
-      <c r="E25" s="7">
-        <v>1411</v>
+        <v>182</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1107</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1395</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2986,22 +3116,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D26" s="7">
-        <v>723</v>
-      </c>
-      <c r="E26" s="7">
-        <v>925</v>
+        <v>182</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1278</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1789</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3009,22 +3139,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D27" s="7">
-        <v>644</v>
-      </c>
-      <c r="E27" s="7">
-        <v>721</v>
+        <v>186</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1458</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1633</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3032,22 +3162,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1128</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1365</v>
+        <v>173</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1152</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1290</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>181</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3055,22 +3185,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D29" s="7">
-        <v>589</v>
-      </c>
-      <c r="E29" s="7">
-        <v>789</v>
+        <v>188</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1156</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1561</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3078,22 +3208,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D30" s="7">
-        <v>902</v>
-      </c>
-      <c r="E30" s="7">
-        <v>1010</v>
+        <v>157</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1140</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1448</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3101,22 +3231,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1220</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1476</v>
+      <c r="D31" s="8">
+        <v>1465</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1817</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3124,22 +3254,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D32" s="8">
+        <v>694</v>
+      </c>
+      <c r="E32" s="8">
+        <v>965</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1278</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1674</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3147,22 +3277,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1150</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1357</v>
+        <v>170</v>
+      </c>
+      <c r="D33" s="8">
+        <v>737</v>
+      </c>
+      <c r="E33" s="8">
+        <v>870</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3170,22 +3300,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D34" s="7">
-        <v>1476</v>
-      </c>
-      <c r="E34" s="7">
-        <v>1875</v>
+        <v>194</v>
+      </c>
+      <c r="D34" s="8">
+        <v>990</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1228</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3193,22 +3323,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D35" s="7">
-        <v>806</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1120</v>
+        <v>197</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1447</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1910</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3216,22 +3346,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1049</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1395</v>
+        <v>199</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1286</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1415</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3239,22 +3369,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>153</v>
+        <v>198</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1279</v>
-      </c>
-      <c r="E37" s="7">
-        <v>1420</v>
+        <v>200</v>
+      </c>
+      <c r="D37" s="8">
+        <v>871</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1036</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3262,22 +3392,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1098</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1383</v>
+        <v>194</v>
+      </c>
+      <c r="D38" s="8">
+        <v>659</v>
+      </c>
+      <c r="E38" s="8">
+        <v>778</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3285,22 +3415,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D39" s="7">
-        <v>805</v>
-      </c>
-      <c r="E39" s="7">
-        <v>1038</v>
+        <v>175</v>
+      </c>
+      <c r="D39" s="8">
+        <v>537</v>
+      </c>
+      <c r="E39" s="8">
+        <v>618</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3308,22 +3438,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D40" s="7">
-        <v>1171</v>
-      </c>
-      <c r="E40" s="7">
-        <v>1370</v>
+        <v>166</v>
+      </c>
+      <c r="D40" s="8">
+        <v>527</v>
+      </c>
+      <c r="E40" s="8">
+        <v>617</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3331,58 +3461,58 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D41" s="7">
-        <v>865</v>
-      </c>
-      <c r="E41" s="7">
-        <v>960</v>
+        <v>202</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1164</v>
+      </c>
+      <c r="E41" s="8">
+        <v>1571</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="17" t="s">
-        <v>131</v>
+      <c r="A44" s="16" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>202</v>
-      </c>
-      <c r="B45" s="6"/>
+        <v>205</v>
+      </c>
+      <c r="B45" s="7"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>203</v>
-      </c>
-      <c r="B46" s="6"/>
+        <v>206</v>
+      </c>
+      <c r="B46" s="7"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>204</v>
-      </c>
-      <c r="B47" s="6"/>
+        <v>207</v>
+      </c>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>205</v>
-      </c>
-      <c r="B48" s="6"/>
+        <v>208</v>
+      </c>
+      <c r="B48" s="7"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>206</v>
-      </c>
-      <c r="B49" s="6"/>
+        <v>209</v>
+      </c>
+      <c r="B49" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
